--- a/Source/Test/Data/RecursiveLoopTest(2Loop).xlsx
+++ b/Source/Test/Data/RecursiveLoopTest(2Loop).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\【業務用フォルダ】\Codeer.LowCode.Blazor\【ExcelReportPDFgit】\Source\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6021E69-1D39-46BD-8843-DB7A091CF6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454BB40-0474-4D5C-901B-D3F67E8023D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -377,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -408,10 +409,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1"/>
-    <row r="5" spans="1:2" ht="31.5" customHeight="1"/>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1"/>
-    <row r="7" spans="1:2" ht="31.5" customHeight="1"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
